--- a/data/raw/election/voters-age-sex-education/2023/Amasya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Amasya.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="36">
   <si>
     <t>Amasya</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>Taşova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -668,11 +675,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,10 +1018,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84:K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,52 +1036,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1119,11 +1135,11 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4.5519999999999996</v>
+      <c r="G6" s="5">
+        <v>1164</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4552</v>
       </c>
       <c r="I6" s="4">
         <v>907</v>
@@ -1137,8 +1153,8 @@
       <c r="L6" s="4">
         <v>33</v>
       </c>
-      <c r="M6" s="5">
-        <v>6.6849999999999996</v>
+      <c r="M6" s="6">
+        <v>6685</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1161,11 +1177,11 @@
       <c r="G7" s="4">
         <v>905</v>
       </c>
-      <c r="H7" s="4">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.4470000000000001</v>
+      <c r="H7" s="5">
+        <v>4350</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1447</v>
       </c>
       <c r="J7" s="4">
         <v>9</v>
@@ -1176,8 +1192,8 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="5">
-        <v>6.734</v>
+      <c r="M7" s="6">
+        <v>6734</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1202,11 +1218,11 @@
       <c r="G8" s="4">
         <v>748</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.895</v>
+      <c r="H8" s="5">
+        <v>1545</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1895</v>
       </c>
       <c r="J8" s="4">
         <v>155</v>
@@ -1217,8 +1233,8 @@
       <c r="L8" s="4">
         <v>15</v>
       </c>
-      <c r="M8" s="5">
-        <v>4.3810000000000002</v>
+      <c r="M8" s="6">
+        <v>4381</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1241,11 +1257,11 @@
       <c r="G9" s="4">
         <v>784</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.131</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.4119999999999999</v>
+      <c r="H9" s="5">
+        <v>1131</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2412</v>
       </c>
       <c r="J9" s="4">
         <v>172</v>
@@ -1256,8 +1272,8 @@
       <c r="L9" s="4">
         <v>16</v>
       </c>
-      <c r="M9" s="5">
-        <v>4.585</v>
+      <c r="M9" s="6">
+        <v>4585</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1282,11 +1298,11 @@
       <c r="G10" s="4">
         <v>418</v>
       </c>
-      <c r="H10" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.732</v>
+      <c r="H10" s="5">
+        <v>1619</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1732</v>
       </c>
       <c r="J10" s="4">
         <v>238</v>
@@ -1297,8 +1313,8 @@
       <c r="L10" s="4">
         <v>12</v>
       </c>
-      <c r="M10" s="5">
-        <v>4.5970000000000004</v>
+      <c r="M10" s="6">
+        <v>4597</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1321,11 +1337,11 @@
       <c r="G11" s="4">
         <v>406</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.321</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1.988</v>
+      <c r="H11" s="5">
+        <v>1321</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1988</v>
       </c>
       <c r="J11" s="4">
         <v>256</v>
@@ -1336,8 +1352,8 @@
       <c r="L11" s="4">
         <v>14</v>
       </c>
-      <c r="M11" s="5">
-        <v>4.8819999999999997</v>
+      <c r="M11" s="6">
+        <v>4882</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,11 +1378,11 @@
       <c r="G12" s="4">
         <v>437</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.589</v>
+      <c r="H12" s="5">
+        <v>1775</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1589</v>
       </c>
       <c r="J12" s="4">
         <v>274</v>
@@ -1377,8 +1393,8 @@
       <c r="L12" s="4">
         <v>20</v>
       </c>
-      <c r="M12" s="5">
-        <v>5.0720000000000001</v>
+      <c r="M12" s="6">
+        <v>5072</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1401,11 +1417,11 @@
       <c r="G13" s="4">
         <v>510</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.492</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.524</v>
+      <c r="H13" s="5">
+        <v>1492</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1524</v>
       </c>
       <c r="J13" s="4">
         <v>230</v>
@@ -1416,8 +1432,8 @@
       <c r="L13" s="4">
         <v>9</v>
       </c>
-      <c r="M13" s="5">
-        <v>5.2510000000000003</v>
+      <c r="M13" s="6">
+        <v>5251</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1442,11 +1458,11 @@
       <c r="G14" s="4">
         <v>748</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.8260000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.3720000000000001</v>
+      <c r="H14" s="5">
+        <v>1826</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1372</v>
       </c>
       <c r="J14" s="4">
         <v>256</v>
@@ -1457,8 +1473,8 @@
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
-        <v>5.25</v>
+      <c r="M14" s="6">
+        <v>5250</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1472,8 +1488,8 @@
       <c r="D15" s="4">
         <v>23</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.054</v>
+      <c r="E15" s="5">
+        <v>1054</v>
       </c>
       <c r="F15" s="4">
         <v>630</v>
@@ -1481,11 +1497,11 @@
       <c r="G15" s="4">
         <v>894</v>
       </c>
-      <c r="H15" s="4">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.167</v>
+      <c r="H15" s="5">
+        <v>1372</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1167</v>
       </c>
       <c r="J15" s="4">
         <v>197</v>
@@ -1496,8 +1512,8 @@
       <c r="L15" s="4">
         <v>10</v>
       </c>
-      <c r="M15" s="5">
-        <v>5.42</v>
+      <c r="M15" s="6">
+        <v>5420</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1522,11 +1538,11 @@
       <c r="G16" s="4">
         <v>663</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.1919999999999999</v>
+      <c r="H16" s="5">
+        <v>1419</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1192</v>
       </c>
       <c r="J16" s="4">
         <v>166</v>
@@ -1537,8 +1553,8 @@
       <c r="L16" s="4">
         <v>18</v>
       </c>
-      <c r="M16" s="5">
-        <v>4.7809999999999997</v>
+      <c r="M16" s="6">
+        <v>4781</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1552,8 +1568,8 @@
       <c r="D17" s="4">
         <v>28</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.292</v>
+      <c r="E17" s="5">
+        <v>1292</v>
       </c>
       <c r="F17" s="4">
         <v>811</v>
@@ -1561,8 +1577,8 @@
       <c r="G17" s="4">
         <v>880</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.085</v>
+      <c r="H17" s="5">
+        <v>1085</v>
       </c>
       <c r="I17" s="4">
         <v>800</v>
@@ -1576,8 +1592,8 @@
       <c r="L17" s="4">
         <v>12</v>
       </c>
-      <c r="M17" s="5">
-        <v>5.0119999999999996</v>
+      <c r="M17" s="6">
+        <v>5012</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1602,11 +1618,11 @@
       <c r="G18" s="4">
         <v>745</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.0349999999999999</v>
+      <c r="H18" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1035</v>
       </c>
       <c r="J18" s="4">
         <v>118</v>
@@ -1617,8 +1633,8 @@
       <c r="L18" s="4">
         <v>16</v>
       </c>
-      <c r="M18" s="5">
-        <v>4.4290000000000003</v>
+      <c r="M18" s="6">
+        <v>4429</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1632,8 +1648,8 @@
       <c r="D19" s="4">
         <v>39</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.7290000000000001</v>
+      <c r="E19" s="5">
+        <v>1729</v>
       </c>
       <c r="F19" s="4">
         <v>759</v>
@@ -1656,8 +1672,8 @@
       <c r="L19" s="4">
         <v>18</v>
       </c>
-      <c r="M19" s="5">
-        <v>4.6950000000000003</v>
+      <c r="M19" s="6">
+        <v>4695</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,8 +1689,8 @@
       <c r="D20" s="4">
         <v>15</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.052</v>
+      <c r="E20" s="5">
+        <v>1052</v>
       </c>
       <c r="F20" s="4">
         <v>620</v>
@@ -1697,8 +1713,8 @@
       <c r="L20" s="4">
         <v>20</v>
       </c>
-      <c r="M20" s="5">
-        <v>4.3040000000000003</v>
+      <c r="M20" s="6">
+        <v>4304</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1712,8 +1728,8 @@
       <c r="D21" s="4">
         <v>111</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.165</v>
+      <c r="E21" s="5">
+        <v>2165</v>
       </c>
       <c r="F21" s="4">
         <v>521</v>
@@ -1736,8 +1752,8 @@
       <c r="L21" s="4">
         <v>22</v>
       </c>
-      <c r="M21" s="5">
-        <v>4.452</v>
+      <c r="M21" s="6">
+        <v>4452</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,8 +1769,8 @@
       <c r="D22" s="4">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.526</v>
+      <c r="E22" s="5">
+        <v>1526</v>
       </c>
       <c r="F22" s="4">
         <v>358</v>
@@ -1777,8 +1793,8 @@
       <c r="L22" s="4">
         <v>20</v>
       </c>
-      <c r="M22" s="5">
-        <v>3.919</v>
+      <c r="M22" s="6">
+        <v>3919</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1792,8 +1808,8 @@
       <c r="D23" s="4">
         <v>207</v>
       </c>
-      <c r="E23" s="4">
-        <v>2.5350000000000001</v>
+      <c r="E23" s="5">
+        <v>2535</v>
       </c>
       <c r="F23" s="4">
         <v>300</v>
@@ -1816,8 +1832,8 @@
       <c r="L23" s="4">
         <v>29</v>
       </c>
-      <c r="M23" s="5">
-        <v>4.2279999999999998</v>
+      <c r="M23" s="6">
+        <v>4228</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1833,8 +1849,8 @@
       <c r="D24" s="4">
         <v>51</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.526</v>
+      <c r="E24" s="5">
+        <v>1526</v>
       </c>
       <c r="F24" s="4">
         <v>204</v>
@@ -1857,8 +1873,8 @@
       <c r="L24" s="4">
         <v>12</v>
       </c>
-      <c r="M24" s="5">
-        <v>3.2589999999999999</v>
+      <c r="M24" s="6">
+        <v>3259</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1872,8 +1888,8 @@
       <c r="D25" s="4">
         <v>350</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.0249999999999999</v>
+      <c r="E25" s="5">
+        <v>2025</v>
       </c>
       <c r="F25" s="4">
         <v>89</v>
@@ -1896,8 +1912,8 @@
       <c r="L25" s="4">
         <v>31</v>
       </c>
-      <c r="M25" s="5">
-        <v>3.3079999999999998</v>
+      <c r="M25" s="6">
+        <v>3308</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1913,8 +1929,8 @@
       <c r="D26" s="4">
         <v>116</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.3049999999999999</v>
+      <c r="E26" s="5">
+        <v>1305</v>
       </c>
       <c r="F26" s="4">
         <v>56</v>
@@ -1937,8 +1953,8 @@
       <c r="L26" s="4">
         <v>16</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.3340000000000001</v>
+      <c r="M26" s="6">
+        <v>2334</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1952,8 +1968,8 @@
       <c r="D27" s="4">
         <v>494</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.395</v>
+      <c r="E27" s="5">
+        <v>1395</v>
       </c>
       <c r="F27" s="4">
         <v>39</v>
@@ -1976,8 +1992,8 @@
       <c r="L27" s="4">
         <v>27</v>
       </c>
-      <c r="M27" s="5">
-        <v>2.6459999999999999</v>
+      <c r="M27" s="6">
+        <v>2646</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1993,8 +2009,8 @@
       <c r="D28" s="4">
         <v>437</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.5820000000000001</v>
+      <c r="E28" s="5">
+        <v>1582</v>
       </c>
       <c r="F28" s="4">
         <v>23</v>
@@ -2017,8 +2033,8 @@
       <c r="L28" s="4">
         <v>33</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.7930000000000001</v>
+      <c r="M28" s="6">
+        <v>2793</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2026,14 +2042,14 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.129</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1.48</v>
+      <c r="C29" s="5">
+        <v>1166</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1129</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1480</v>
       </c>
       <c r="F29" s="4">
         <v>13</v>
@@ -2056,54 +2072,54 @@
       <c r="L29" s="4">
         <v>58</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.0380000000000003</v>
+      <c r="M29" s="6">
+        <v>4038</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>2.2690000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3.165</v>
-      </c>
-      <c r="E30" s="5">
-        <v>23.102</v>
-      </c>
-      <c r="F30" s="5">
-        <v>9.3740000000000006</v>
-      </c>
-      <c r="G30" s="5">
-        <v>13.275</v>
-      </c>
-      <c r="H30" s="5">
-        <v>29.606000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>22.846</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>2269</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3165</v>
+      </c>
+      <c r="E30" s="6">
+        <v>23102</v>
+      </c>
+      <c r="F30" s="6">
+        <v>9374</v>
+      </c>
+      <c r="G30" s="6">
+        <v>13275</v>
+      </c>
+      <c r="H30" s="6">
+        <v>29606</v>
+      </c>
+      <c r="I30" s="6">
+        <v>22846</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2388</v>
+      </c>
+      <c r="K30" s="8">
         <v>552</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>478</v>
       </c>
-      <c r="M30" s="5">
-        <v>107.05500000000001</v>
+      <c r="M30" s="6">
+        <v>107055</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2175,7 +2191,7 @@
       <c r="L32" s="4">
         <v>3</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
         <v>410</v>
       </c>
     </row>
@@ -2214,7 +2230,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>361</v>
       </c>
     </row>
@@ -2255,7 +2271,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="8">
         <v>254</v>
       </c>
     </row>
@@ -2294,7 +2310,7 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>196</v>
       </c>
     </row>
@@ -2335,7 +2351,7 @@
       <c r="L36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>224</v>
       </c>
     </row>
@@ -2374,7 +2390,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>165</v>
       </c>
     </row>
@@ -2415,7 +2431,7 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>231</v>
       </c>
     </row>
@@ -2454,7 +2470,7 @@
       <c r="L39" s="4">
         <v>1</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>207</v>
       </c>
     </row>
@@ -2495,7 +2511,7 @@
       <c r="L40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>279</v>
       </c>
     </row>
@@ -2534,7 +2550,7 @@
       <c r="L41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>230</v>
       </c>
     </row>
@@ -2575,7 +2591,7 @@
       <c r="L42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>243</v>
       </c>
     </row>
@@ -2614,7 +2630,7 @@
       <c r="L43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>235</v>
       </c>
     </row>
@@ -2655,7 +2671,7 @@
       <c r="L44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>295</v>
       </c>
     </row>
@@ -2694,7 +2710,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>340</v>
       </c>
     </row>
@@ -2735,7 +2751,7 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>393</v>
       </c>
     </row>
@@ -2774,7 +2790,7 @@
       <c r="L47" s="4">
         <v>4</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>425</v>
       </c>
     </row>
@@ -2815,7 +2831,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>417</v>
       </c>
     </row>
@@ -2854,7 +2870,7 @@
       <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>406</v>
       </c>
     </row>
@@ -2895,7 +2911,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>441</v>
       </c>
     </row>
@@ -2934,7 +2950,7 @@
       <c r="L51" s="4">
         <v>2</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>396</v>
       </c>
     </row>
@@ -2975,7 +2991,7 @@
       <c r="L52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>366</v>
       </c>
     </row>
@@ -3014,7 +3030,7 @@
       <c r="L53" s="4">
         <v>1</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>401</v>
       </c>
     </row>
@@ -3055,7 +3071,7 @@
       <c r="L54" s="4">
         <v>1</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>423</v>
       </c>
     </row>
@@ -3094,7 +3110,7 @@
       <c r="L55" s="4">
         <v>2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>612</v>
       </c>
     </row>
@@ -3102,46 +3118,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>189</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>847</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.944</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>2944</v>
+      </c>
+      <c r="F56" s="8">
         <v>766</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.385</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1128</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1385</v>
+      </c>
+      <c r="I56" s="8">
         <v>619</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="8">
         <v>42</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>24</v>
       </c>
-      <c r="M56" s="5">
-        <v>7.95</v>
+      <c r="M56" s="6">
+        <v>7950</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3213,7 +3229,7 @@
       <c r="L58" s="4">
         <v>7</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>828</v>
       </c>
     </row>
@@ -3252,7 +3268,7 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>824</v>
       </c>
     </row>
@@ -3293,7 +3309,7 @@
       <c r="L60" s="4">
         <v>2</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>509</v>
       </c>
     </row>
@@ -3332,7 +3348,7 @@
       <c r="L61" s="4">
         <v>4</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>516</v>
       </c>
     </row>
@@ -3373,7 +3389,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>554</v>
       </c>
     </row>
@@ -3412,7 +3428,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>515</v>
       </c>
     </row>
@@ -3453,7 +3469,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>606</v>
       </c>
     </row>
@@ -3492,7 +3508,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>517</v>
       </c>
     </row>
@@ -3533,7 +3549,7 @@
       <c r="L66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>655</v>
       </c>
     </row>
@@ -3572,7 +3588,7 @@
       <c r="L67" s="4">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>587</v>
       </c>
     </row>
@@ -3613,7 +3629,7 @@
       <c r="L68" s="4">
         <v>2</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>618</v>
       </c>
     </row>
@@ -3652,7 +3668,7 @@
       <c r="L69" s="4">
         <v>7</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>638</v>
       </c>
     </row>
@@ -3693,7 +3709,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>695</v>
       </c>
     </row>
@@ -3732,7 +3748,7 @@
       <c r="L71" s="4">
         <v>5</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>738</v>
       </c>
     </row>
@@ -3773,7 +3789,7 @@
       <c r="L72" s="4">
         <v>4</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>846</v>
       </c>
     </row>
@@ -3812,7 +3828,7 @@
       <c r="L73" s="4">
         <v>7</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>859</v>
       </c>
     </row>
@@ -3853,7 +3869,7 @@
       <c r="L74" s="4">
         <v>7</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>949</v>
       </c>
     </row>
@@ -3892,8 +3908,8 @@
       <c r="L75" s="4">
         <v>9</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M75" s="6">
+        <v>1049</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3933,7 +3949,7 @@
       <c r="L76" s="4">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>741</v>
       </c>
     </row>
@@ -3972,7 +3988,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>967</v>
       </c>
     </row>
@@ -4013,7 +4029,7 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>708</v>
       </c>
     </row>
@@ -4052,7 +4068,7 @@
       <c r="L79" s="4">
         <v>1</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>777</v>
       </c>
     </row>
@@ -4093,8 +4109,8 @@
       <c r="L80" s="4">
         <v>10</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.054</v>
+      <c r="M80" s="6">
+        <v>1054</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4132,54 +4148,54 @@
       <c r="L81" s="4">
         <v>21</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.496</v>
+      <c r="M81" s="6">
+        <v>1496</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>566</v>
       </c>
-      <c r="D82" s="5">
-        <v>1.169</v>
-      </c>
-      <c r="E82" s="5">
-        <v>6.2290000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.1709999999999998</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.9540000000000002</v>
-      </c>
-      <c r="I82" s="5">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="D82" s="6">
+        <v>1169</v>
+      </c>
+      <c r="E82" s="6">
+        <v>6229</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1584</v>
+      </c>
+      <c r="G82" s="6">
+        <v>2171</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3954</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2267</v>
+      </c>
+      <c r="J82" s="8">
         <v>178</v>
       </c>
-      <c r="K82" s="5">
-        <v>15</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="8">
+        <v>15</v>
+      </c>
+      <c r="L82" s="8">
         <v>113</v>
       </c>
-      <c r="M82" s="5">
-        <v>18.245999999999999</v>
+      <c r="M82" s="6">
+        <v>18246</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +4220,7 @@
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -4245,13 +4261,13 @@
       <c r="J84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>15</v>
+      <c r="K84" s="4">
+        <v>0</v>
       </c>
       <c r="L84" s="4">
         <v>4</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>133</v>
       </c>
     </row>
@@ -4284,13 +4300,13 @@
       <c r="J85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>15</v>
+      <c r="K85" s="4">
+        <v>0</v>
       </c>
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>156</v>
       </c>
     </row>
@@ -4325,13 +4341,13 @@
       <c r="J86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>15</v>
+      <c r="K86" s="4">
+        <v>0</v>
       </c>
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>103</v>
       </c>
     </row>
@@ -4364,13 +4380,13 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>15</v>
+      <c r="K87" s="4">
+        <v>0</v>
       </c>
       <c r="L87" s="4">
         <v>1</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>97</v>
       </c>
     </row>
@@ -4405,13 +4421,13 @@
       <c r="J88" s="4">
         <v>4</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>15</v>
+      <c r="K88" s="4">
+        <v>0</v>
       </c>
       <c r="L88" s="4">
         <v>1</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>81</v>
       </c>
     </row>
@@ -4444,13 +4460,13 @@
       <c r="J89" s="4">
         <v>3</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>15</v>
+      <c r="K89" s="4">
+        <v>0</v>
       </c>
       <c r="L89" s="4">
         <v>2</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>75</v>
       </c>
     </row>
@@ -4485,13 +4501,13 @@
       <c r="J90" s="4">
         <v>2</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>15</v>
+      <c r="K90" s="4">
+        <v>0</v>
       </c>
       <c r="L90" s="4">
         <v>1</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>78</v>
       </c>
     </row>
@@ -4524,13 +4540,13 @@
       <c r="J91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>15</v>
+      <c r="K91" s="4">
+        <v>0</v>
       </c>
       <c r="L91" s="4">
         <v>2</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4565,13 +4581,13 @@
       <c r="J92" s="4">
         <v>1</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>15</v>
+      <c r="K92" s="4">
+        <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>83</v>
       </c>
     </row>
@@ -4604,13 +4620,13 @@
       <c r="J93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>15</v>
+      <c r="K93" s="4">
+        <v>0</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>83</v>
       </c>
     </row>
@@ -4645,13 +4661,13 @@
       <c r="J94" s="4">
         <v>1</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>15</v>
+      <c r="K94" s="4">
+        <v>0</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4684,13 +4700,13 @@
       <c r="J95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>15</v>
+      <c r="K95" s="4">
+        <v>0</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>103</v>
       </c>
     </row>
@@ -4725,13 +4741,13 @@
       <c r="J96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>15</v>
+      <c r="K96" s="4">
+        <v>0</v>
       </c>
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>122</v>
       </c>
     </row>
@@ -4764,13 +4780,13 @@
       <c r="J97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>15</v>
+      <c r="K97" s="4">
+        <v>0</v>
       </c>
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>124</v>
       </c>
     </row>
@@ -4805,13 +4821,13 @@
       <c r="J98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>15</v>
+      <c r="K98" s="4">
+        <v>0</v>
       </c>
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>126</v>
       </c>
     </row>
@@ -4844,13 +4860,13 @@
       <c r="J99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>15</v>
+      <c r="K99" s="4">
+        <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>131</v>
       </c>
     </row>
@@ -4885,13 +4901,13 @@
       <c r="J100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>15</v>
+      <c r="K100" s="4">
+        <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>134</v>
       </c>
     </row>
@@ -4924,13 +4940,13 @@
       <c r="J101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>15</v>
+      <c r="K101" s="4">
+        <v>0</v>
       </c>
       <c r="L101" s="4">
         <v>1</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>157</v>
       </c>
     </row>
@@ -4965,13 +4981,13 @@
       <c r="J102" s="4">
         <v>1</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>15</v>
+      <c r="K102" s="4">
+        <v>0</v>
       </c>
       <c r="L102" s="4">
         <v>1</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>135</v>
       </c>
     </row>
@@ -5004,13 +5020,13 @@
       <c r="J103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>15</v>
+      <c r="K103" s="4">
+        <v>0</v>
       </c>
       <c r="L103" s="4">
         <v>2</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>149</v>
       </c>
     </row>
@@ -5045,13 +5061,13 @@
       <c r="J104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>15</v>
+      <c r="K104" s="4">
+        <v>0</v>
       </c>
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>113</v>
       </c>
     </row>
@@ -5084,13 +5100,13 @@
       <c r="J105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>15</v>
+      <c r="K105" s="4">
+        <v>0</v>
       </c>
       <c r="L105" s="4">
         <v>1</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>150</v>
       </c>
     </row>
@@ -5125,13 +5141,13 @@
       <c r="J106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>15</v>
+      <c r="K106" s="4">
+        <v>0</v>
       </c>
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>203</v>
       </c>
     </row>
@@ -5164,13 +5180,13 @@
       <c r="J107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>15</v>
+      <c r="K107" s="4">
+        <v>0</v>
       </c>
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>266</v>
       </c>
     </row>
@@ -5178,43 +5194,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>92</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>204</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>1096</v>
+      </c>
+      <c r="F108" s="8">
         <v>272</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="8">
         <v>384</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="8">
         <v>606</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="8">
         <v>288</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="8">
         <v>13</v>
       </c>
-      <c r="L108" s="5">
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="8">
         <v>24</v>
       </c>
-      <c r="M108" s="5">
-        <v>2.9790000000000001</v>
+      <c r="M108" s="6">
+        <v>2979</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5271,8 +5290,8 @@
       <c r="G110" s="4">
         <v>573</v>
       </c>
-      <c r="H110" s="4">
-        <v>2.1480000000000001</v>
+      <c r="H110" s="5">
+        <v>2148</v>
       </c>
       <c r="I110" s="4">
         <v>577</v>
@@ -5286,8 +5305,8 @@
       <c r="L110" s="4">
         <v>21</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.3330000000000002</v>
+      <c r="M110" s="6">
+        <v>3333</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5310,8 +5329,8 @@
       <c r="G111" s="4">
         <v>483</v>
       </c>
-      <c r="H111" s="4">
-        <v>2.0939999999999999</v>
+      <c r="H111" s="5">
+        <v>2094</v>
       </c>
       <c r="I111" s="4">
         <v>664</v>
@@ -5325,8 +5344,8 @@
       <c r="L111" s="4">
         <v>12</v>
       </c>
-      <c r="M111" s="5">
-        <v>3.2669999999999999</v>
+      <c r="M111" s="6">
+        <v>3267</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5354,8 +5373,8 @@
       <c r="H112" s="4">
         <v>939</v>
       </c>
-      <c r="I112" s="4">
-        <v>1.212</v>
+      <c r="I112" s="5">
+        <v>1212</v>
       </c>
       <c r="J112" s="4">
         <v>64</v>
@@ -5366,8 +5385,8 @@
       <c r="L112" s="4">
         <v>20</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.577</v>
+      <c r="M112" s="6">
+        <v>2577</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5393,8 +5412,8 @@
       <c r="H113" s="4">
         <v>648</v>
       </c>
-      <c r="I113" s="4">
-        <v>1.206</v>
+      <c r="I113" s="5">
+        <v>1206</v>
       </c>
       <c r="J113" s="4">
         <v>74</v>
@@ -5405,8 +5424,8 @@
       <c r="L113" s="4">
         <v>10</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.4500000000000002</v>
+      <c r="M113" s="6">
+        <v>2450</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5446,8 +5465,8 @@
       <c r="L114" s="4">
         <v>7</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.456</v>
+      <c r="M114" s="6">
+        <v>2456</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5473,8 +5492,8 @@
       <c r="H115" s="4">
         <v>784</v>
       </c>
-      <c r="I115" s="4">
-        <v>1.018</v>
+      <c r="I115" s="5">
+        <v>1018</v>
       </c>
       <c r="J115" s="4">
         <v>124</v>
@@ -5485,8 +5504,8 @@
       <c r="L115" s="4">
         <v>19</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.577</v>
+      <c r="M115" s="6">
+        <v>2577</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5511,8 +5530,8 @@
       <c r="G116" s="4">
         <v>225</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.0680000000000001</v>
+      <c r="H116" s="5">
+        <v>1068</v>
       </c>
       <c r="I116" s="4">
         <v>894</v>
@@ -5526,8 +5545,8 @@
       <c r="L116" s="4">
         <v>12</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.7650000000000001</v>
+      <c r="M116" s="6">
+        <v>2765</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5565,8 +5584,8 @@
       <c r="L117" s="4">
         <v>21</v>
       </c>
-      <c r="M117" s="5">
-        <v>2.8180000000000001</v>
+      <c r="M117" s="6">
+        <v>2818</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5591,8 +5610,8 @@
       <c r="G118" s="4">
         <v>425</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.131</v>
+      <c r="H118" s="5">
+        <v>1131</v>
       </c>
       <c r="I118" s="4">
         <v>801</v>
@@ -5606,8 +5625,8 @@
       <c r="L118" s="4">
         <v>22</v>
       </c>
-      <c r="M118" s="5">
-        <v>3.0489999999999999</v>
+      <c r="M118" s="6">
+        <v>3049</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5645,8 +5664,8 @@
       <c r="L119" s="4">
         <v>19</v>
       </c>
-      <c r="M119" s="5">
-        <v>2.9620000000000002</v>
+      <c r="M119" s="6">
+        <v>2962</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5686,8 +5705,8 @@
       <c r="L120" s="4">
         <v>18</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.4750000000000001</v>
+      <c r="M120" s="6">
+        <v>2475</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5725,8 +5744,8 @@
       <c r="L121" s="4">
         <v>24</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.5579999999999998</v>
+      <c r="M121" s="6">
+        <v>2558</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,8 +5785,8 @@
       <c r="L122" s="4">
         <v>28</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.2429999999999999</v>
+      <c r="M122" s="6">
+        <v>2243</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5805,8 +5824,8 @@
       <c r="L123" s="4">
         <v>32</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.387</v>
+      <c r="M123" s="6">
+        <v>2387</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5846,8 +5865,8 @@
       <c r="L124" s="4">
         <v>34</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.2759999999999998</v>
+      <c r="M124" s="6">
+        <v>2276</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5861,8 +5880,8 @@
       <c r="D125" s="4">
         <v>49</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.3049999999999999</v>
+      <c r="E125" s="5">
+        <v>1305</v>
       </c>
       <c r="F125" s="4">
         <v>230</v>
@@ -5885,8 +5904,8 @@
       <c r="L125" s="4">
         <v>29</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.4390000000000001</v>
+      <c r="M125" s="6">
+        <v>2439</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5926,8 +5945,8 @@
       <c r="L126" s="4">
         <v>25</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.2450000000000001</v>
+      <c r="M126" s="6">
+        <v>2245</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5941,8 +5960,8 @@
       <c r="D127" s="4">
         <v>103</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.496</v>
+      <c r="E127" s="5">
+        <v>1496</v>
       </c>
       <c r="F127" s="4">
         <v>146</v>
@@ -5965,8 +5984,8 @@
       <c r="L127" s="4">
         <v>23</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.4209999999999998</v>
+      <c r="M127" s="6">
+        <v>2421</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6006,8 +6025,8 @@
       <c r="L128" s="4">
         <v>17</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.8029999999999999</v>
+      <c r="M128" s="6">
+        <v>1803</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6021,8 +6040,8 @@
       <c r="D129" s="4">
         <v>200</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.2609999999999999</v>
+      <c r="E129" s="5">
+        <v>1261</v>
       </c>
       <c r="F129" s="4">
         <v>43</v>
@@ -6045,8 +6064,8 @@
       <c r="L129" s="4">
         <v>33</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.96</v>
+      <c r="M129" s="6">
+        <v>1960</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6086,8 +6105,8 @@
       <c r="L130" s="4">
         <v>19</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.3740000000000001</v>
+      <c r="M130" s="6">
+        <v>1374</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,8 +6120,8 @@
       <c r="D131" s="4">
         <v>264</v>
       </c>
-      <c r="E131" s="4">
-        <v>1</v>
+      <c r="E131" s="5">
+        <v>1000</v>
       </c>
       <c r="F131" s="4">
         <v>23</v>
@@ -6125,8 +6144,8 @@
       <c r="L131" s="4">
         <v>37</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.645</v>
+      <c r="M131" s="6">
+        <v>1645</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,8 +6161,8 @@
       <c r="D132" s="4">
         <v>177</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.143</v>
+      <c r="E132" s="5">
+        <v>1143</v>
       </c>
       <c r="F132" s="4">
         <v>13</v>
@@ -6166,8 +6185,8 @@
       <c r="L132" s="4">
         <v>49</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.87</v>
+      <c r="M132" s="6">
+        <v>1870</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6181,8 +6200,8 @@
       <c r="D133" s="4">
         <v>599</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.4339999999999999</v>
+      <c r="E133" s="5">
+        <v>1434</v>
       </c>
       <c r="F133" s="4">
         <v>6</v>
@@ -6205,54 +6224,54 @@
       <c r="L133" s="4">
         <v>36</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.7130000000000001</v>
+      <c r="M133" s="6">
+        <v>2713</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>985</v>
       </c>
-      <c r="D134" s="5">
-        <v>1.613</v>
-      </c>
-      <c r="E134" s="5">
-        <v>14.167999999999999</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4.407</v>
-      </c>
-      <c r="G134" s="5">
-        <v>7.1630000000000003</v>
-      </c>
-      <c r="H134" s="5">
-        <v>16.77</v>
-      </c>
-      <c r="I134" s="5">
-        <v>11.859</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="K134" s="5">
+      <c r="D134" s="6">
+        <v>1613</v>
+      </c>
+      <c r="E134" s="6">
+        <v>14168</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4407</v>
+      </c>
+      <c r="G134" s="6">
+        <v>7163</v>
+      </c>
+      <c r="H134" s="6">
+        <v>16770</v>
+      </c>
+      <c r="I134" s="6">
+        <v>11859</v>
+      </c>
+      <c r="J134" s="6">
+        <v>1029</v>
+      </c>
+      <c r="K134" s="8">
         <v>102</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>567</v>
       </c>
-      <c r="M134" s="5">
-        <v>58.662999999999997</v>
+      <c r="M134" s="6">
+        <v>58663</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6309,8 +6328,8 @@
       <c r="G136" s="4">
         <v>465</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.6519999999999999</v>
+      <c r="H136" s="5">
+        <v>1652</v>
       </c>
       <c r="I136" s="4">
         <v>327</v>
@@ -6324,8 +6343,8 @@
       <c r="L136" s="4">
         <v>20</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.468</v>
+      <c r="M136" s="6">
+        <v>2468</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6348,8 +6367,8 @@
       <c r="G137" s="4">
         <v>361</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.643</v>
+      <c r="H137" s="5">
+        <v>1643</v>
       </c>
       <c r="I137" s="4">
         <v>517</v>
@@ -6363,8 +6382,8 @@
       <c r="L137" s="4">
         <v>5</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.536</v>
+      <c r="M137" s="6">
+        <v>2536</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6404,8 +6423,8 @@
       <c r="L138" s="4">
         <v>6</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.546</v>
+      <c r="M138" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6443,8 +6462,8 @@
       <c r="L139" s="4">
         <v>5</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.653</v>
+      <c r="M139" s="6">
+        <v>1653</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6484,8 +6503,8 @@
       <c r="L140" s="4">
         <v>3</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.518</v>
+      <c r="M140" s="6">
+        <v>1518</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6523,8 +6542,8 @@
       <c r="L141" s="4">
         <v>5</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.482</v>
+      <c r="M141" s="6">
+        <v>1482</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6564,8 +6583,8 @@
       <c r="L142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.6439999999999999</v>
+      <c r="M142" s="6">
+        <v>1644</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6603,8 +6622,8 @@
       <c r="L143" s="4">
         <v>3</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.573</v>
+      <c r="M143" s="6">
+        <v>1573</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6644,8 +6663,8 @@
       <c r="L144" s="4">
         <v>9</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.706</v>
+      <c r="M144" s="6">
+        <v>1706</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6683,8 +6702,8 @@
       <c r="L145" s="4">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.74</v>
+      <c r="M145" s="6">
+        <v>1740</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6724,8 +6743,8 @@
       <c r="L146" s="4">
         <v>7</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.5609999999999999</v>
+      <c r="M146" s="6">
+        <v>1561</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6763,8 +6782,8 @@
       <c r="L147" s="4">
         <v>13</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.6160000000000001</v>
+      <c r="M147" s="6">
+        <v>1616</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6804,8 +6823,8 @@
       <c r="L148" s="4">
         <v>7</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.575</v>
+      <c r="M148" s="6">
+        <v>1575</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6843,8 +6862,8 @@
       <c r="L149" s="4">
         <v>8</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.5049999999999999</v>
+      <c r="M149" s="6">
+        <v>1505</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6884,8 +6903,8 @@
       <c r="L150" s="4">
         <v>15</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.5669999999999999</v>
+      <c r="M150" s="6">
+        <v>1567</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6923,8 +6942,8 @@
       <c r="L151" s="4">
         <v>12</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.5740000000000001</v>
+      <c r="M151" s="6">
+        <v>1574</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6964,8 +6983,8 @@
       <c r="L152" s="4">
         <v>6</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.284</v>
+      <c r="M152" s="6">
+        <v>1284</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,8 +7022,8 @@
       <c r="L153" s="4">
         <v>10</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.3959999999999999</v>
+      <c r="M153" s="6">
+        <v>1396</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7044,8 +7063,8 @@
       <c r="L154" s="4">
         <v>8</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.093</v>
+      <c r="M154" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7083,8 +7102,8 @@
       <c r="L155" s="4">
         <v>6</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.159</v>
+      <c r="M155" s="6">
+        <v>1159</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7124,7 +7143,7 @@
       <c r="L156" s="4">
         <v>14</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>853</v>
       </c>
     </row>
@@ -7163,7 +7182,7 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>975</v>
       </c>
     </row>
@@ -7204,8 +7223,8 @@
       <c r="L158" s="4">
         <v>18</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.0449999999999999</v>
+      <c r="M158" s="6">
+        <v>1045</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7243,54 +7262,54 @@
       <c r="L159" s="4">
         <v>21</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.4610000000000001</v>
+      <c r="M159" s="6">
+        <v>1461</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>1416</v>
+      </c>
+      <c r="D160" s="8">
         <v>970</v>
       </c>
-      <c r="E160" s="5">
-        <v>8.8640000000000008</v>
-      </c>
-      <c r="F160" s="5">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="G160" s="5">
-        <v>5.4249999999999998</v>
-      </c>
-      <c r="H160" s="5">
-        <v>10.457000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>5.34</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>8864</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3438</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5425</v>
+      </c>
+      <c r="H160" s="6">
+        <v>10457</v>
+      </c>
+      <c r="I160" s="6">
+        <v>5340</v>
+      </c>
+      <c r="J160" s="8">
         <v>379</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>22</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>219</v>
       </c>
-      <c r="M160" s="5">
-        <v>36.53</v>
+      <c r="M160" s="6">
+        <v>36530</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7362,8 +7381,8 @@
       <c r="L162" s="4">
         <v>12</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.3080000000000001</v>
+      <c r="M162" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7401,8 +7420,8 @@
       <c r="L163" s="4">
         <v>8</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.276</v>
+      <c r="M163" s="6">
+        <v>1276</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7442,7 +7461,7 @@
       <c r="L164" s="4">
         <v>7</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>727</v>
       </c>
     </row>
@@ -7481,7 +7500,7 @@
       <c r="L165" s="4">
         <v>1</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>677</v>
       </c>
     </row>
@@ -7522,7 +7541,7 @@
       <c r="L166" s="4">
         <v>6</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>641</v>
       </c>
     </row>
@@ -7561,7 +7580,7 @@
       <c r="L167" s="4">
         <v>1</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>637</v>
       </c>
     </row>
@@ -7602,7 +7621,7 @@
       <c r="L168" s="4">
         <v>5</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>789</v>
       </c>
     </row>
@@ -7641,7 +7660,7 @@
       <c r="L169" s="4">
         <v>6</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>755</v>
       </c>
     </row>
@@ -7682,7 +7701,7 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>789</v>
       </c>
     </row>
@@ -7721,7 +7740,7 @@
       <c r="L171" s="4">
         <v>7</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>821</v>
       </c>
     </row>
@@ -7762,7 +7781,7 @@
       <c r="L172" s="4">
         <v>4</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>831</v>
       </c>
     </row>
@@ -7801,7 +7820,7 @@
       <c r="L173" s="4">
         <v>5</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>794</v>
       </c>
     </row>
@@ -7842,7 +7861,7 @@
       <c r="L174" s="4">
         <v>9</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>963</v>
       </c>
     </row>
@@ -7881,8 +7900,8 @@
       <c r="L175" s="4">
         <v>17</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M175" s="6">
+        <v>1049</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7922,8 +7941,8 @@
       <c r="L176" s="4">
         <v>27</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.3580000000000001</v>
+      <c r="M176" s="6">
+        <v>1358</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7961,8 +7980,8 @@
       <c r="L177" s="4">
         <v>18</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.333</v>
+      <c r="M177" s="6">
+        <v>1333</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8002,8 +8021,8 @@
       <c r="L178" s="4">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M178" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8041,8 +8060,8 @@
       <c r="L179" s="4">
         <v>18</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.409</v>
+      <c r="M179" s="6">
+        <v>1409</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8082,8 +8101,8 @@
       <c r="L180" s="4">
         <v>8</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.1299999999999999</v>
+      <c r="M180" s="6">
+        <v>1130</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8121,8 +8140,8 @@
       <c r="L181" s="4">
         <v>13</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M181" s="6">
+        <v>1314</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8162,7 +8181,7 @@
       <c r="L182" s="4">
         <v>10</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>905</v>
       </c>
     </row>
@@ -8201,8 +8220,8 @@
       <c r="L183" s="4">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.097</v>
+      <c r="M183" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8242,8 +8261,8 @@
       <c r="L184" s="4">
         <v>29</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.3839999999999999</v>
+      <c r="M184" s="6">
+        <v>1384</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8281,47 +8300,57 @@
       <c r="L185" s="4">
         <v>28</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.923</v>
+      <c r="M185" s="6">
+        <v>1923</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>772</v>
       </c>
-      <c r="D186" s="5">
-        <v>1.633</v>
-      </c>
-      <c r="E186" s="5">
-        <v>9.0779999999999994</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.395</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.3260000000000001</v>
-      </c>
-      <c r="H186" s="5">
-        <v>4.9690000000000003</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.548</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="D186" s="6">
+        <v>1633</v>
+      </c>
+      <c r="E186" s="6">
+        <v>9078</v>
+      </c>
+      <c r="F186" s="6">
+        <v>2395</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3326</v>
+      </c>
+      <c r="H186" s="6">
+        <v>4969</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2548</v>
+      </c>
+      <c r="J186" s="8">
         <v>203</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>24</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>273</v>
       </c>
-      <c r="M186" s="5">
-        <v>25.221</v>
+      <c r="M186" s="6">
+        <v>25221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
